--- a/InOutColor.xlsx
+++ b/InOutColor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="136">
   <si>
     <t>O</t>
   </si>
@@ -412,6 +412,18 @@
   </si>
   <si>
     <t>Production area PMP01 motor vacuum pump</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>FB1011</t>
+  </si>
+  <si>
+    <t>FB1001</t>
+  </si>
+  <si>
+    <t>FB1051</t>
   </si>
 </sst>
 </file>
@@ -427,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +482,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -483,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -491,6 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,9 +822,10 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,8 +841,14 @@
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +864,14 @@
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +887,14 @@
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,8 +910,14 @@
       <c r="E4" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +933,14 @@
       <c r="E5" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +956,14 @@
       <c r="E6" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,8 +979,14 @@
       <c r="E7" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -940,8 +1002,14 @@
       <c r="E8" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -957,8 +1025,14 @@
       <c r="E9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -974,8 +1048,14 @@
       <c r="E10" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -991,8 +1071,14 @@
       <c r="E11" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1008,8 +1094,14 @@
       <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -1025,8 +1117,14 @@
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1140,14 @@
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1163,14 @@
       <c r="E15" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1076,8 +1186,14 @@
       <c r="E16" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1209,14 @@
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1110,8 +1232,14 @@
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1255,14 @@
       <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1144,8 +1278,14 @@
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1161,8 +1301,14 @@
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1178,8 +1324,14 @@
       <c r="E22" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1347,14 @@
       <c r="E23" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1370,10 @@
       <c r="E24" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1229,8 +1389,14 @@
       <c r="E25" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1412,14 @@
       <c r="E26" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1263,8 +1435,14 @@
       <c r="E27" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1453,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1464,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1475,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1486,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>0</v>
       </c>
